--- a/wash_P/ISR.xlsx
+++ b/wash_P/ISR.xlsx
@@ -46702,7 +46702,7 @@
         <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
         <v>0</v>
